--- a/data/pca/factorExposure/factorExposure_2018-11-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.07205637824713695</v>
+        <v>0.04811991314481684</v>
       </c>
       <c r="C2">
-        <v>0.05830299849917583</v>
+        <v>0.0013669779580681</v>
       </c>
       <c r="D2">
-        <v>-0.06604062755816426</v>
+        <v>0.02173269823579723</v>
       </c>
       <c r="E2">
-        <v>-0.01687439772611086</v>
+        <v>-0.01845470986498266</v>
       </c>
       <c r="F2">
-        <v>0.1405130529352886</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03187355482108389</v>
+      </c>
+      <c r="G2">
+        <v>0.1094297833009147</v>
+      </c>
+      <c r="H2">
+        <v>-0.06910872557271504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1952284728745995</v>
+        <v>0.1202986350209106</v>
       </c>
       <c r="C3">
-        <v>-0.002681405815886446</v>
+        <v>-0.04495533087729125</v>
       </c>
       <c r="D3">
-        <v>-0.1313600308157512</v>
+        <v>0.05695836417198145</v>
       </c>
       <c r="E3">
-        <v>-0.0678400184372487</v>
+        <v>-0.01202872505794282</v>
       </c>
       <c r="F3">
-        <v>0.3715953244314176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.0009787402704525508</v>
+      </c>
+      <c r="G3">
+        <v>0.3456585042921164</v>
+      </c>
+      <c r="H3">
+        <v>-0.2553888573578446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.06822312099676295</v>
+        <v>0.05791471124647352</v>
       </c>
       <c r="C4">
-        <v>0.02926634162696561</v>
+        <v>-0.007839848610647557</v>
       </c>
       <c r="D4">
-        <v>-0.04781392405772608</v>
+        <v>0.02972975221065907</v>
       </c>
       <c r="E4">
-        <v>-0.05820112626427805</v>
+        <v>0.0146480809454665</v>
       </c>
       <c r="F4">
-        <v>0.063016113709482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06085185153879868</v>
+      </c>
+      <c r="G4">
+        <v>0.0614985762125913</v>
+      </c>
+      <c r="H4">
+        <v>-0.02526404843168696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.008111028478079273</v>
+        <v>0.03378257628700517</v>
       </c>
       <c r="C6">
-        <v>0.003840624384181859</v>
+        <v>-0.003541626623033092</v>
       </c>
       <c r="D6">
-        <v>-0.002817661618223989</v>
+        <v>0.01489247471498263</v>
       </c>
       <c r="E6">
-        <v>0.004673293743996013</v>
+        <v>0.002280751512358592</v>
       </c>
       <c r="F6">
-        <v>0.0002429583903621269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02647005612914178</v>
+      </c>
+      <c r="G6">
+        <v>0.01121408147315199</v>
+      </c>
+      <c r="H6">
+        <v>0.030667273118709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03714772733598589</v>
+        <v>0.03105496425008347</v>
       </c>
       <c r="C7">
-        <v>0.01647703317647676</v>
+        <v>-0.005536819786191988</v>
       </c>
       <c r="D7">
-        <v>-0.04571658766861493</v>
+        <v>0.008533734600639636</v>
       </c>
       <c r="E7">
-        <v>-0.009850164037020503</v>
+        <v>0.03141044192700911</v>
       </c>
       <c r="F7">
-        <v>0.05897157602319936</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02352554469669663</v>
+      </c>
+      <c r="G7">
+        <v>0.04690403445008067</v>
+      </c>
+      <c r="H7">
+        <v>-0.04473776462917545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03703747601889005</v>
+        <v>0.01291792300785898</v>
       </c>
       <c r="C8">
-        <v>0.002166683977378232</v>
+        <v>-0.006784354757461794</v>
       </c>
       <c r="D8">
-        <v>-0.03793900179471196</v>
+        <v>0.03186025007777225</v>
       </c>
       <c r="E8">
-        <v>-0.04937497794101368</v>
+        <v>0.01041091577440187</v>
       </c>
       <c r="F8">
-        <v>0.08941281613031128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02998689441281565</v>
+      </c>
+      <c r="G8">
+        <v>0.07089112289525996</v>
+      </c>
+      <c r="H8">
+        <v>-0.05235695441257431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0545350972355751</v>
+        <v>0.04571524022421394</v>
       </c>
       <c r="C9">
-        <v>0.02751060720162448</v>
+        <v>-0.009652886632251129</v>
       </c>
       <c r="D9">
-        <v>-0.03139215618160495</v>
+        <v>0.02155385770423589</v>
       </c>
       <c r="E9">
-        <v>-0.06465093657699855</v>
+        <v>0.015322676228588</v>
       </c>
       <c r="F9">
-        <v>0.06294076618033925</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.04190586663565778</v>
+      </c>
+      <c r="G9">
+        <v>0.07810856170650053</v>
+      </c>
+      <c r="H9">
+        <v>-0.0275352984043069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03228635189981991</v>
+        <v>0.05201263894996751</v>
       </c>
       <c r="C10">
-        <v>0.06782912225166197</v>
+        <v>-0.01775580284959252</v>
       </c>
       <c r="D10">
-        <v>0.1098710745166243</v>
+        <v>-0.1500283372113723</v>
       </c>
       <c r="E10">
-        <v>0.1018718793060775</v>
+        <v>-0.01869479923647949</v>
       </c>
       <c r="F10">
-        <v>0.07749233032885089</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.08020782597754605</v>
+      </c>
+      <c r="G10">
+        <v>0.04146250758372867</v>
+      </c>
+      <c r="H10">
+        <v>-0.02526324297268342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.04598384588471869</v>
+        <v>0.03268590410749575</v>
       </c>
       <c r="C11">
-        <v>0.006158546334325282</v>
+        <v>-0.01762707285901114</v>
       </c>
       <c r="D11">
-        <v>-0.02888812203494485</v>
+        <v>0.02896776801257009</v>
       </c>
       <c r="E11">
-        <v>-0.01610861855005788</v>
+        <v>-0.006159389683622277</v>
       </c>
       <c r="F11">
-        <v>0.03933631536755892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.01912800570498487</v>
+      </c>
+      <c r="G11">
+        <v>0.04569347046653158</v>
+      </c>
+      <c r="H11">
+        <v>-0.008575297362086447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04601629580831045</v>
+        <v>0.03728358920113738</v>
       </c>
       <c r="C12">
-        <v>0.007701141953808783</v>
+        <v>-0.01505909657312138</v>
       </c>
       <c r="D12">
-        <v>-0.02537192523383783</v>
+        <v>0.0279175596548457</v>
       </c>
       <c r="E12">
-        <v>-0.03465977336485715</v>
+        <v>0.005287940619918762</v>
       </c>
       <c r="F12">
-        <v>0.0228921138222604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02426962219319016</v>
+      </c>
+      <c r="G12">
+        <v>0.01497463463177595</v>
+      </c>
+      <c r="H12">
+        <v>-0.007048708385579599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.04677526452507928</v>
+        <v>0.03784857386340669</v>
       </c>
       <c r="C13">
-        <v>0.02325560165162678</v>
+        <v>0.004678876421560773</v>
       </c>
       <c r="D13">
-        <v>-0.04726969161461287</v>
+        <v>0.01273048590399569</v>
       </c>
       <c r="E13">
-        <v>0.006524888177556982</v>
+        <v>-0.01872565715475238</v>
       </c>
       <c r="F13">
-        <v>0.1100615106705652</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.01975945757423594</v>
+      </c>
+      <c r="G13">
+        <v>0.0881593159892093</v>
+      </c>
+      <c r="H13">
+        <v>-0.03178728922343502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02460172473165924</v>
+        <v>0.02154707177050636</v>
       </c>
       <c r="C14">
-        <v>0.01939300854739873</v>
+        <v>-0.004864443840585714</v>
       </c>
       <c r="D14">
-        <v>-0.03627569977714103</v>
+        <v>0.009679473151007182</v>
       </c>
       <c r="E14">
-        <v>-0.0259729659100609</v>
+        <v>0.005144563511488498</v>
       </c>
       <c r="F14">
-        <v>0.04456325526897292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02797376404578704</v>
+      </c>
+      <c r="G14">
+        <v>0.0426684868146797</v>
+      </c>
+      <c r="H14">
+        <v>-0.06447906957420289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03789847548314629</v>
+        <v>0.03056899263483708</v>
       </c>
       <c r="C16">
-        <v>0.006477388666830017</v>
+        <v>-0.01652623130642784</v>
       </c>
       <c r="D16">
-        <v>-0.02562802617883254</v>
+        <v>0.02798552449485789</v>
       </c>
       <c r="E16">
-        <v>-0.01677831122472566</v>
+        <v>-0.0007304174824883803</v>
       </c>
       <c r="F16">
-        <v>0.03094613185080434</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.0212510695380676</v>
+      </c>
+      <c r="G16">
+        <v>0.03397250413350089</v>
+      </c>
+      <c r="H16">
+        <v>-0.009406803913985929</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.05768431124854613</v>
+        <v>0.04180693216531992</v>
       </c>
       <c r="C19">
-        <v>2.266660670135424e-05</v>
+        <v>-0.008801474483660168</v>
       </c>
       <c r="D19">
-        <v>-0.0425164380509757</v>
+        <v>0.0295689844365634</v>
       </c>
       <c r="E19">
-        <v>-0.01281845903525002</v>
+        <v>-0.00608793634909005</v>
       </c>
       <c r="F19">
-        <v>0.09199479417581563</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.02727231733271354</v>
+      </c>
+      <c r="G19">
+        <v>0.09003519821004197</v>
+      </c>
+      <c r="H19">
+        <v>-0.04022894002465201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01780594184060388</v>
+        <v>0.01368334421022561</v>
       </c>
       <c r="C20">
-        <v>0.01081569153298064</v>
+        <v>0.003454218092834027</v>
       </c>
       <c r="D20">
-        <v>-0.04320851396843111</v>
+        <v>0.0167203433479658</v>
       </c>
       <c r="E20">
-        <v>-0.03916746374318324</v>
+        <v>0.002990699922977176</v>
       </c>
       <c r="F20">
-        <v>0.05798393484852028</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02152562464861073</v>
+      </c>
+      <c r="G20">
+        <v>0.0539491285648666</v>
+      </c>
+      <c r="H20">
+        <v>-0.05939121615560532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01560945064832641</v>
+        <v>0.0257084326889918</v>
       </c>
       <c r="C21">
-        <v>-0.004104246636325135</v>
+        <v>0.001928916494317423</v>
       </c>
       <c r="D21">
-        <v>-0.03370751820344246</v>
+        <v>0.01237699994517411</v>
       </c>
       <c r="E21">
-        <v>-0.01819817953987166</v>
+        <v>0.01079276789093413</v>
       </c>
       <c r="F21">
-        <v>0.09613685174720031</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01017862418684712</v>
+      </c>
+      <c r="G21">
+        <v>0.07314234868672585</v>
+      </c>
+      <c r="H21">
+        <v>-0.02644175678839705</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03473439805927454</v>
+        <v>0.02942169861240874</v>
       </c>
       <c r="C24">
-        <v>0.005715008970298551</v>
+        <v>-0.0111349420494382</v>
       </c>
       <c r="D24">
-        <v>-0.02200524887508443</v>
+        <v>0.02507758362919453</v>
       </c>
       <c r="E24">
-        <v>-0.01758092078097944</v>
+        <v>6.601268472851321e-05</v>
       </c>
       <c r="F24">
-        <v>0.03963395191669483</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.0182340430570695</v>
+      </c>
+      <c r="G24">
+        <v>0.03599087381699936</v>
+      </c>
+      <c r="H24">
+        <v>-0.005124067399285538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0403072830031533</v>
+        <v>0.04017545618990848</v>
       </c>
       <c r="C25">
-        <v>0.00540127265902968</v>
+        <v>-0.01052501853112259</v>
       </c>
       <c r="D25">
-        <v>-0.02555969156923595</v>
+        <v>0.02606776259391388</v>
       </c>
       <c r="E25">
-        <v>-0.02451155859471366</v>
+        <v>-3.371697711832074e-05</v>
       </c>
       <c r="F25">
-        <v>0.04700841265500141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02157982868572609</v>
+      </c>
+      <c r="G25">
+        <v>0.044228725644441</v>
+      </c>
+      <c r="H25">
+        <v>-0.001993618320495536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01939069581762454</v>
+        <v>0.01963381465908622</v>
       </c>
       <c r="C26">
-        <v>-0.003178383552761009</v>
+        <v>0.01546874279373174</v>
       </c>
       <c r="D26">
-        <v>-0.04775965003911587</v>
+        <v>0.01664863524311708</v>
       </c>
       <c r="E26">
-        <v>-0.008602780479250456</v>
+        <v>-0.005073620590018965</v>
       </c>
       <c r="F26">
-        <v>0.05008027248175756</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.008146625175879796</v>
+      </c>
+      <c r="G26">
+        <v>0.04743465088271454</v>
+      </c>
+      <c r="H26">
+        <v>-0.04115032689907567</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.09961202806716132</v>
+        <v>0.04896916078638845</v>
       </c>
       <c r="C27">
-        <v>0.04744376714710002</v>
+        <v>-0.02506561601174638</v>
       </c>
       <c r="D27">
-        <v>-0.02612812266762082</v>
+        <v>0.007295881358909616</v>
       </c>
       <c r="E27">
-        <v>-0.03578976619375857</v>
+        <v>-0.001248095227063103</v>
       </c>
       <c r="F27">
-        <v>0.06629113251004477</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.02485300075907522</v>
+      </c>
+      <c r="G27">
+        <v>0.04600314854839819</v>
+      </c>
+      <c r="H27">
+        <v>-0.03234745259231554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04711720274183814</v>
+        <v>0.07984382754852856</v>
       </c>
       <c r="C28">
-        <v>0.08328020805650889</v>
+        <v>-0.01378608207117733</v>
       </c>
       <c r="D28">
-        <v>0.1813582822078159</v>
+        <v>-0.2342887244856504</v>
       </c>
       <c r="E28">
-        <v>0.1473811231416389</v>
+        <v>-0.02041458142264902</v>
       </c>
       <c r="F28">
-        <v>0.05421629407934886</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.1102539547498959</v>
+      </c>
+      <c r="G28">
+        <v>0.0180653563740235</v>
+      </c>
+      <c r="H28">
+        <v>-0.05366962667201376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02629462597380305</v>
+        <v>0.02286433085989334</v>
       </c>
       <c r="C29">
-        <v>0.01553448842562861</v>
+        <v>-0.00578247240355943</v>
       </c>
       <c r="D29">
-        <v>-0.03200923483103211</v>
+        <v>0.009908874668577278</v>
       </c>
       <c r="E29">
-        <v>-0.03410704298610205</v>
+        <v>0.006730819401196019</v>
       </c>
       <c r="F29">
-        <v>0.02491901335462157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.02828238860571606</v>
+      </c>
+      <c r="G29">
+        <v>0.03424070216321292</v>
+      </c>
+      <c r="H29">
+        <v>-0.06580463497535079</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1007766633825561</v>
+        <v>0.07771160045416205</v>
       </c>
       <c r="C30">
-        <v>0.04970575167291698</v>
+        <v>-0.01599323348650107</v>
       </c>
       <c r="D30">
-        <v>-0.0645494813793475</v>
+        <v>0.04150077354456919</v>
       </c>
       <c r="E30">
-        <v>-0.02734730401826688</v>
+        <v>-0.04476252338503829</v>
       </c>
       <c r="F30">
-        <v>0.08234879143200846</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.05852302229252906</v>
+      </c>
+      <c r="G30">
+        <v>0.09333194777527339</v>
+      </c>
+      <c r="H30">
+        <v>-0.01289889279821917</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06170187676447485</v>
+        <v>0.05406098621404316</v>
       </c>
       <c r="C31">
-        <v>0.01553601596207964</v>
+        <v>-0.02266215543793318</v>
       </c>
       <c r="D31">
-        <v>-0.03853583810678909</v>
+        <v>0.01322830871884865</v>
       </c>
       <c r="E31">
-        <v>0.02245364971078442</v>
+        <v>-0.01130864144867107</v>
       </c>
       <c r="F31">
-        <v>0.02017524233115594</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01429902376972851</v>
+      </c>
+      <c r="G31">
+        <v>0.01516956946471388</v>
+      </c>
+      <c r="H31">
+        <v>-0.06050931053544407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.05340227578306387</v>
+        <v>0.0221197059286203</v>
       </c>
       <c r="C32">
-        <v>0.01754847765407539</v>
+        <v>-0.02229617926376328</v>
       </c>
       <c r="D32">
-        <v>-0.05123615737608338</v>
+        <v>0.0236008129689969</v>
       </c>
       <c r="E32">
-        <v>-0.04623134067410874</v>
+        <v>0.01378555609876918</v>
       </c>
       <c r="F32">
-        <v>0.07711493988960143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.05318604115717387</v>
+      </c>
+      <c r="G32">
+        <v>0.08169210158025</v>
+      </c>
+      <c r="H32">
+        <v>-0.007362989834801805</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.06320260111559782</v>
+        <v>0.046466474129868</v>
       </c>
       <c r="C33">
-        <v>0.0001157347442437096</v>
+        <v>-0.01039554932860883</v>
       </c>
       <c r="D33">
-        <v>-0.06480703907259755</v>
+        <v>0.04018810670154593</v>
       </c>
       <c r="E33">
-        <v>-0.01634707981423133</v>
+        <v>-0.02254846263341552</v>
       </c>
       <c r="F33">
-        <v>0.08647673436978741</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01150130533839932</v>
+      </c>
+      <c r="G33">
+        <v>0.07721283129481467</v>
+      </c>
+      <c r="H33">
+        <v>-0.04880133039622996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03984308752733948</v>
+        <v>0.0312300036270898</v>
       </c>
       <c r="C34">
-        <v>0.01256927897841326</v>
+        <v>-0.02460863472301673</v>
       </c>
       <c r="D34">
-        <v>-0.02828205877429836</v>
+        <v>0.02643064229894397</v>
       </c>
       <c r="E34">
-        <v>-0.02392796962678248</v>
+        <v>0.004780128859113639</v>
       </c>
       <c r="F34">
-        <v>0.04087682276919016</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.0267190893301064</v>
+      </c>
+      <c r="G34">
+        <v>0.03750242692886839</v>
+      </c>
+      <c r="H34">
+        <v>-0.006898634495749835</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01818288750795812</v>
+        <v>0.02003686460128389</v>
       </c>
       <c r="C36">
-        <v>0.01247894186785163</v>
+        <v>0.00201617060165836</v>
       </c>
       <c r="D36">
-        <v>-0.003872608602764476</v>
+        <v>-0.002039029703147354</v>
       </c>
       <c r="E36">
-        <v>-0.006625712784579319</v>
+        <v>0.00148920587117639</v>
       </c>
       <c r="F36">
-        <v>0.03149066395543302</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.004255643489704773</v>
+      </c>
+      <c r="G36">
+        <v>0.03072138237897911</v>
+      </c>
+      <c r="H36">
+        <v>-0.0370154682839928</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01256023071776051</v>
+        <v>0.01805171030828681</v>
       </c>
       <c r="C38">
-        <v>0.00591331586675278</v>
+        <v>-0.01779864892010648</v>
       </c>
       <c r="D38">
-        <v>0.01548909262932283</v>
+        <v>0.001488142927950623</v>
       </c>
       <c r="E38">
-        <v>-0.0009242856844255981</v>
+        <v>0.002957034134326017</v>
       </c>
       <c r="F38">
-        <v>0.03184135416617901</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.003651970072002455</v>
+      </c>
+      <c r="G38">
+        <v>0.04281375621959087</v>
+      </c>
+      <c r="H38">
+        <v>-0.01877478166845239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.05166275551549905</v>
+        <v>0.03861512258713968</v>
       </c>
       <c r="C39">
-        <v>0.01735375736168324</v>
+        <v>-0.01525173066508046</v>
       </c>
       <c r="D39">
-        <v>-0.04472821032789784</v>
+        <v>0.04460709459061435</v>
       </c>
       <c r="E39">
-        <v>-0.01447897869866369</v>
+        <v>-0.005211434807373795</v>
       </c>
       <c r="F39">
-        <v>0.04189679520513882</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04309009311867027</v>
+      </c>
+      <c r="G39">
+        <v>0.05543090749873485</v>
+      </c>
+      <c r="H39">
+        <v>0.004121635235895815</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.05318715263089738</v>
+        <v>0.04303051481622482</v>
       </c>
       <c r="C40">
-        <v>0.03955097754921712</v>
+        <v>-0.01209255776394929</v>
       </c>
       <c r="D40">
-        <v>-0.07458229192862294</v>
+        <v>0.03280557456912129</v>
       </c>
       <c r="E40">
-        <v>-0.001678876340426647</v>
+        <v>-0.02402663994093743</v>
       </c>
       <c r="F40">
-        <v>0.08641131051880058</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03404389697115065</v>
+      </c>
+      <c r="G40">
+        <v>0.07194078550673158</v>
+      </c>
+      <c r="H40">
+        <v>-0.03132680436170027</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.004938010584618274</v>
+        <v>0.004397283309662693</v>
       </c>
       <c r="C41">
-        <v>-0.00463576249172051</v>
+        <v>0.002225642595161997</v>
       </c>
       <c r="D41">
-        <v>-0.0191797691743161</v>
+        <v>0.0002353032912690407</v>
       </c>
       <c r="E41">
-        <v>-0.015264286611874</v>
+        <v>0.0001331815685958746</v>
       </c>
       <c r="F41">
-        <v>0.006058946182159612</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.0003174680039276757</v>
+      </c>
+      <c r="G41">
+        <v>0.008831591404705288</v>
+      </c>
+      <c r="H41">
+        <v>-0.04970281729822881</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3457181079035017</v>
+        <v>0.2430789296997381</v>
       </c>
       <c r="C42">
-        <v>-0.8855272434069492</v>
+        <v>0.04732573811931975</v>
       </c>
       <c r="D42">
-        <v>0.06224300013694618</v>
+        <v>0.5110495974454458</v>
       </c>
       <c r="E42">
-        <v>0.2497021445824129</v>
+        <v>-0.02844134577611259</v>
       </c>
       <c r="F42">
-        <v>-0.05112355256012784</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8041437266660608</v>
+      </c>
+      <c r="G42">
+        <v>-0.1018605285111431</v>
+      </c>
+      <c r="H42">
+        <v>0.02291429147669099</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01162632387879124</v>
+        <v>0.002053349784369286</v>
       </c>
       <c r="C43">
-        <v>-0.001239771234324078</v>
+        <v>0.004517052856310232</v>
       </c>
       <c r="D43">
-        <v>-0.02498603677410485</v>
+        <v>0.001992491004080362</v>
       </c>
       <c r="E43">
-        <v>-0.01236467872901311</v>
+        <v>-0.003311521530957749</v>
       </c>
       <c r="F43">
-        <v>0.03094226888875621</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.001838516713851384</v>
+      </c>
+      <c r="G43">
+        <v>0.02028992732731784</v>
+      </c>
+      <c r="H43">
+        <v>-0.0467854018237838</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.03258520754941115</v>
+        <v>0.01643139515698278</v>
       </c>
       <c r="C44">
-        <v>0.004657135323225375</v>
+        <v>-0.004330356003996902</v>
       </c>
       <c r="D44">
-        <v>-0.05618850070503398</v>
+        <v>0.02140504817893543</v>
       </c>
       <c r="E44">
-        <v>-0.02798689643049101</v>
+        <v>0.002042372782503576</v>
       </c>
       <c r="F44">
-        <v>0.1617016684967691</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.01290819124004483</v>
+      </c>
+      <c r="G44">
+        <v>0.1175512045766331</v>
+      </c>
+      <c r="H44">
+        <v>-0.08648309592330709</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02696461601985544</v>
+        <v>0.02233664136651474</v>
       </c>
       <c r="C46">
-        <v>0.01282782061333052</v>
+        <v>-0.002345780564105116</v>
       </c>
       <c r="D46">
-        <v>-0.04946468052887057</v>
+        <v>0.02025255578112383</v>
       </c>
       <c r="E46">
-        <v>-0.02595656804181201</v>
+        <v>-0.005033694543044948</v>
       </c>
       <c r="F46">
-        <v>0.02576483064939922</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03735886597779042</v>
+      </c>
+      <c r="G46">
+        <v>0.04903986821392098</v>
+      </c>
+      <c r="H46">
+        <v>-0.06266399989566586</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09396716350062308</v>
+        <v>0.0780521831538413</v>
       </c>
       <c r="C47">
-        <v>0.03024430236545316</v>
+        <v>-0.04316421881096742</v>
       </c>
       <c r="D47">
-        <v>-0.03073551796303399</v>
+        <v>0.01836738845093778</v>
       </c>
       <c r="E47">
-        <v>-0.01478022573172785</v>
+        <v>-0.007321745077081895</v>
       </c>
       <c r="F47">
-        <v>-0.007094842963204527</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.02576950124346457</v>
+      </c>
+      <c r="G47">
+        <v>-0.01653925845789373</v>
+      </c>
+      <c r="H47">
+        <v>-0.07266203831662343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01625264867321509</v>
+        <v>0.01914848464916707</v>
       </c>
       <c r="C48">
-        <v>0.008039186723304219</v>
+        <v>-0.008415477319227505</v>
       </c>
       <c r="D48">
-        <v>-0.02934624590243182</v>
+        <v>0.008202520359569953</v>
       </c>
       <c r="E48">
-        <v>-0.01430984958327308</v>
+        <v>-0.001473395327810471</v>
       </c>
       <c r="F48">
-        <v>0.04328854566892919</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01023571288051966</v>
+      </c>
+      <c r="G48">
+        <v>0.03425767687650434</v>
+      </c>
+      <c r="H48">
+        <v>-0.03187505540323553</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0983398307008027</v>
+        <v>0.07613074233682239</v>
       </c>
       <c r="C50">
-        <v>0.009454275366302525</v>
+        <v>-0.03867317380463571</v>
       </c>
       <c r="D50">
-        <v>-0.03942176532338094</v>
+        <v>0.03251341288284113</v>
       </c>
       <c r="E50">
-        <v>-0.002098091135159034</v>
+        <v>0.005789076713844698</v>
       </c>
       <c r="F50">
-        <v>0.0003386700746892957</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.01661932538375406</v>
+      </c>
+      <c r="G50">
+        <v>0.01288692642114284</v>
+      </c>
+      <c r="H50">
+        <v>-0.06044798242010642</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.04429372824697561</v>
+        <v>0.02411288787244087</v>
       </c>
       <c r="C51">
-        <v>0.003118422801667565</v>
+        <v>-0.003260788866427041</v>
       </c>
       <c r="D51">
-        <v>-0.0280565826022326</v>
+        <v>-0.002956945350697795</v>
       </c>
       <c r="E51">
-        <v>0.03756769473491716</v>
+        <v>-0.01244107190201869</v>
       </c>
       <c r="F51">
-        <v>0.1344107836059037</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01583835950888396</v>
+      </c>
+      <c r="G51">
+        <v>0.09428567965041268</v>
+      </c>
+      <c r="H51">
+        <v>-0.06369433727978215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1189993247020898</v>
+        <v>0.1029394307782797</v>
       </c>
       <c r="C53">
-        <v>0.02935242132262176</v>
+        <v>-0.05714095897156615</v>
       </c>
       <c r="D53">
-        <v>-0.0640616661960956</v>
+        <v>0.04512906368099001</v>
       </c>
       <c r="E53">
-        <v>-0.01876962346971265</v>
+        <v>-0.006342442734070794</v>
       </c>
       <c r="F53">
-        <v>-0.07464714969323992</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.0581845438309275</v>
+      </c>
+      <c r="G53">
+        <v>-0.05637633033022218</v>
+      </c>
+      <c r="H53">
+        <v>-0.03152660854484005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02320201291759895</v>
+        <v>0.0199900487494111</v>
       </c>
       <c r="C54">
-        <v>0.02688798681404378</v>
+        <v>-0.01431836381184282</v>
       </c>
       <c r="D54">
-        <v>-0.0181868136225929</v>
+        <v>-0.01025240839392371</v>
       </c>
       <c r="E54">
-        <v>-0.01745697102189068</v>
+        <v>0.001890161064693582</v>
       </c>
       <c r="F54">
-        <v>0.0476538455675402</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01911905624591317</v>
+      </c>
+      <c r="G54">
+        <v>0.04106183527184597</v>
+      </c>
+      <c r="H54">
+        <v>-0.07031827737119412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1070749914217258</v>
+        <v>0.08874144403091366</v>
       </c>
       <c r="C55">
-        <v>0.02315015397525572</v>
+        <v>-0.0499804650964818</v>
       </c>
       <c r="D55">
-        <v>-0.01761179579599646</v>
+        <v>0.03918005955479228</v>
       </c>
       <c r="E55">
-        <v>-0.04285110070564269</v>
+        <v>0.00759135431413653</v>
       </c>
       <c r="F55">
-        <v>-0.06165955464695682</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04675495524285506</v>
+      </c>
+      <c r="G55">
+        <v>-0.04484381097193374</v>
+      </c>
+      <c r="H55">
+        <v>-0.04276324631890204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1458540057335913</v>
+        <v>0.1355749331720039</v>
       </c>
       <c r="C56">
-        <v>0.06923339530836442</v>
+        <v>-0.08140467577451835</v>
       </c>
       <c r="D56">
-        <v>-0.04451652476601477</v>
+        <v>0.03996730490363097</v>
       </c>
       <c r="E56">
-        <v>-0.04310198644236992</v>
+        <v>-0.00288834350296395</v>
       </c>
       <c r="F56">
-        <v>-0.1432364763387665</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.07823422469163531</v>
+      </c>
+      <c r="G56">
+        <v>-0.1034941806614287</v>
+      </c>
+      <c r="H56">
+        <v>-0.00129230133477511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.06049327448881819</v>
+        <v>0.05608499499842404</v>
       </c>
       <c r="C57">
-        <v>0.02060859759443884</v>
+        <v>-0.002473722382156355</v>
       </c>
       <c r="D57">
-        <v>-0.04423863776689478</v>
+        <v>0.02120032171484008</v>
       </c>
       <c r="E57">
-        <v>0.004931836635788516</v>
+        <v>-0.01665174866675602</v>
       </c>
       <c r="F57">
-        <v>0.08277402792602698</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.0134290401398521</v>
+      </c>
+      <c r="G57">
+        <v>0.06357084965091434</v>
+      </c>
+      <c r="H57">
+        <v>-0.0182874806363716</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2345390168341403</v>
+        <v>0.1718942473040753</v>
       </c>
       <c r="C58">
-        <v>0.04839002007704102</v>
+        <v>-0.07467164971400692</v>
       </c>
       <c r="D58">
-        <v>-0.1249823812695516</v>
+        <v>0.0742367761174591</v>
       </c>
       <c r="E58">
-        <v>-0.01225817460075576</v>
+        <v>-0.1129808668708877</v>
       </c>
       <c r="F58">
-        <v>0.1798340527416598</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.006690887828266077</v>
+      </c>
+      <c r="G58">
+        <v>0.4136845216697885</v>
+      </c>
+      <c r="H58">
+        <v>-0.3611668543176057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05319263470263198</v>
+        <v>0.08163922559418181</v>
       </c>
       <c r="C59">
-        <v>0.1049893663531755</v>
+        <v>-0.02292103399661327</v>
       </c>
       <c r="D59">
-        <v>0.1353430224620031</v>
+        <v>-0.2084606955350135</v>
       </c>
       <c r="E59">
-        <v>0.09700237657411259</v>
+        <v>-0.03524946493081526</v>
       </c>
       <c r="F59">
-        <v>0.04062243987446953</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.073909869475487</v>
+      </c>
+      <c r="G59">
+        <v>0.0424249379553192</v>
+      </c>
+      <c r="H59">
+        <v>-0.008374264945342505</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1768010688644752</v>
+        <v>0.1829741064830114</v>
       </c>
       <c r="C60">
-        <v>0.08014749262449705</v>
+        <v>-0.06791341402201753</v>
       </c>
       <c r="D60">
-        <v>-0.001765921683430195</v>
+        <v>-0.04358776757061483</v>
       </c>
       <c r="E60">
-        <v>0.0867547334568813</v>
+        <v>-0.07061805085759576</v>
       </c>
       <c r="F60">
-        <v>0.1351648671892031</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.0264187028661022</v>
+      </c>
+      <c r="G60">
+        <v>0.1965798473875868</v>
+      </c>
+      <c r="H60">
+        <v>0.3730822603764636</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.03329123451959709</v>
+        <v>0.03263597952716944</v>
       </c>
       <c r="C61">
-        <v>0.008665822925593449</v>
+        <v>-0.01594766473940144</v>
       </c>
       <c r="D61">
-        <v>-0.01853268971260814</v>
+        <v>0.02994855025024325</v>
       </c>
       <c r="E61">
-        <v>-0.02054791396155367</v>
+        <v>0.0003536509062763442</v>
       </c>
       <c r="F61">
-        <v>0.03664775176027601</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02920925250446849</v>
+      </c>
+      <c r="G61">
+        <v>0.03972803181031117</v>
+      </c>
+      <c r="H61">
+        <v>0.009782371373638968</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.02763218995834174</v>
+        <v>0.02236257395445307</v>
       </c>
       <c r="C63">
-        <v>0.02106902086505429</v>
+        <v>-0.005078756104276307</v>
       </c>
       <c r="D63">
-        <v>-0.04417167959992441</v>
+        <v>0.01752404005929606</v>
       </c>
       <c r="E63">
-        <v>-0.02533634908388363</v>
+        <v>-0.001653453703454274</v>
       </c>
       <c r="F63">
-        <v>0.03411757550549575</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02547392298896926</v>
+      </c>
+      <c r="G63">
+        <v>0.03117838714278349</v>
+      </c>
+      <c r="H63">
+        <v>-0.05492421680060277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05164826706187049</v>
+        <v>0.04777468631470529</v>
       </c>
       <c r="C64">
-        <v>0.01150271086474011</v>
+        <v>-0.02112065387691008</v>
       </c>
       <c r="D64">
-        <v>-0.03780826447998936</v>
+        <v>0.03565254690525901</v>
       </c>
       <c r="E64">
-        <v>-0.06261696659152743</v>
+        <v>0.008888783805982068</v>
       </c>
       <c r="F64">
-        <v>0.05754266640207044</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03229583047877163</v>
+      </c>
+      <c r="G64">
+        <v>0.03836210004206769</v>
+      </c>
+      <c r="H64">
+        <v>-0.02918939075921666</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.007574213391896339</v>
+        <v>0.03979402946812418</v>
       </c>
       <c r="C65">
-        <v>0.002329589780353069</v>
+        <v>-0.004378629735223277</v>
       </c>
       <c r="D65">
-        <v>-0.001575783550854486</v>
+        <v>0.01754833759684985</v>
       </c>
       <c r="E65">
-        <v>0.005724036206176141</v>
+        <v>0.002075081282162236</v>
       </c>
       <c r="F65">
-        <v>0.0008108384858101399</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.02596771338758674</v>
+      </c>
+      <c r="G65">
+        <v>0.005832551371903658</v>
+      </c>
+      <c r="H65">
+        <v>0.03649129678292466</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.05644090015148618</v>
+        <v>0.04836119887274676</v>
       </c>
       <c r="C66">
-        <v>0.02630040954555311</v>
+        <v>-0.02334029438861991</v>
       </c>
       <c r="D66">
-        <v>-0.05519712002727079</v>
+        <v>0.04873365115404443</v>
       </c>
       <c r="E66">
-        <v>-0.02942682257574039</v>
+        <v>-0.01409833526063157</v>
       </c>
       <c r="F66">
-        <v>0.07183562460821295</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06480344804740557</v>
+      </c>
+      <c r="G66">
+        <v>0.06331348786660732</v>
+      </c>
+      <c r="H66">
+        <v>0.01978689164858303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02851676706174968</v>
+        <v>0.0350614179890064</v>
       </c>
       <c r="C67">
-        <v>0.01577578549490005</v>
+        <v>-0.02202069841850974</v>
       </c>
       <c r="D67">
-        <v>0.02749997036646103</v>
+        <v>-0.01032225942408076</v>
       </c>
       <c r="E67">
-        <v>0.01468672686404871</v>
+        <v>-0.002280142725506082</v>
       </c>
       <c r="F67">
-        <v>0.03968594530595389</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.003243502410574771</v>
+      </c>
+      <c r="G67">
+        <v>0.0353983342641335</v>
+      </c>
+      <c r="H67">
+        <v>-0.0007062877514063415</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06184765524894822</v>
+        <v>0.08839745711032768</v>
       </c>
       <c r="C68">
-        <v>0.09193517960631245</v>
+        <v>-0.002369181585176757</v>
       </c>
       <c r="D68">
-        <v>0.1855977581605618</v>
+        <v>-0.2214227280456237</v>
       </c>
       <c r="E68">
-        <v>0.143260024580484</v>
+        <v>-0.03044182734832911</v>
       </c>
       <c r="F68">
-        <v>-0.01277986844108968</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.1068923998695175</v>
+      </c>
+      <c r="G68">
+        <v>-0.003988317765838714</v>
+      </c>
+      <c r="H68">
+        <v>-0.04577888364305988</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07408209965539775</v>
+        <v>0.06283835323265101</v>
       </c>
       <c r="C69">
-        <v>0.03057416718158824</v>
+        <v>-0.03917913006418065</v>
       </c>
       <c r="D69">
-        <v>-0.01269776753546707</v>
+        <v>0.01212994640898126</v>
       </c>
       <c r="E69">
-        <v>0.006949709326050805</v>
+        <v>-0.0097056338063818</v>
       </c>
       <c r="F69">
-        <v>0.004141666289253063</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.01992276304048677</v>
+      </c>
+      <c r="G69">
+        <v>-0.001799078510414417</v>
+      </c>
+      <c r="H69">
+        <v>-0.04504132951127641</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05997050076306228</v>
+        <v>0.08488654243405465</v>
       </c>
       <c r="C71">
-        <v>0.1103791088235593</v>
+        <v>-0.01052345695398997</v>
       </c>
       <c r="D71">
-        <v>0.2287516223003535</v>
+        <v>-0.23634357205287</v>
       </c>
       <c r="E71">
-        <v>0.2298351101274506</v>
+        <v>-0.03716132213830308</v>
       </c>
       <c r="F71">
-        <v>0.05311534169249933</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.1284692551456376</v>
+      </c>
+      <c r="G71">
+        <v>0.0150295337681061</v>
+      </c>
+      <c r="H71">
+        <v>-0.01805939731098787</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1300961804474538</v>
+        <v>0.1164271546302261</v>
       </c>
       <c r="C72">
-        <v>0.09683774402410322</v>
+        <v>-0.07164423832154304</v>
       </c>
       <c r="D72">
-        <v>-0.04506302554423531</v>
+        <v>0.03337486125800545</v>
       </c>
       <c r="E72">
-        <v>-0.03203665914649939</v>
+        <v>-0.02138594954321635</v>
       </c>
       <c r="F72">
-        <v>0.02348883435212592</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.09786800514900809</v>
+      </c>
+      <c r="G72">
+        <v>0.1105167363464647</v>
+      </c>
+      <c r="H72">
+        <v>0.08219509192692125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2539470761986168</v>
+        <v>0.2541540529992344</v>
       </c>
       <c r="C73">
-        <v>0.1125312257152791</v>
+        <v>-0.08947507197215158</v>
       </c>
       <c r="D73">
-        <v>0.03678938801806886</v>
+        <v>-0.02818788042181228</v>
       </c>
       <c r="E73">
-        <v>0.1238833031430434</v>
+        <v>-0.1050746669165235</v>
       </c>
       <c r="F73">
-        <v>0.2502816890385499</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.01533726050112531</v>
+      </c>
+      <c r="G73">
+        <v>0.2667692747026118</v>
+      </c>
+      <c r="H73">
+        <v>0.5376928696385015</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1322886799074283</v>
+        <v>0.1240366260736709</v>
       </c>
       <c r="C74">
-        <v>0.02664008591883527</v>
+        <v>-0.073261257517111</v>
       </c>
       <c r="D74">
-        <v>-0.03523196822857149</v>
+        <v>0.04403047705610556</v>
       </c>
       <c r="E74">
-        <v>-0.02050582546994716</v>
+        <v>-0.009913825598400382</v>
       </c>
       <c r="F74">
-        <v>-0.1162853441909913</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.05729990808112117</v>
+      </c>
+      <c r="G74">
+        <v>-0.08833655376920292</v>
+      </c>
+      <c r="H74">
+        <v>0.009725231633602038</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2289063421843989</v>
+        <v>0.231334880988733</v>
       </c>
       <c r="C75">
-        <v>0.09887503672505975</v>
+        <v>-0.1405187054396632</v>
       </c>
       <c r="D75">
-        <v>-0.073267203525961</v>
+        <v>0.04766577460827696</v>
       </c>
       <c r="E75">
-        <v>-0.01533503587000245</v>
+        <v>-0.03491381928959834</v>
       </c>
       <c r="F75">
-        <v>-0.1788853910023705</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1248449934985125</v>
+      </c>
+      <c r="G75">
+        <v>-0.1772668168420718</v>
+      </c>
+      <c r="H75">
+        <v>-0.01514626614556738</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2461342293297507</v>
+        <v>0.2212248309875129</v>
       </c>
       <c r="C76">
-        <v>0.1146769119565749</v>
+        <v>-0.1372050581718121</v>
       </c>
       <c r="D76">
-        <v>-0.01892756097381046</v>
+        <v>0.0377107913296784</v>
       </c>
       <c r="E76">
-        <v>-0.06363101646630419</v>
+        <v>0.007004461947338205</v>
       </c>
       <c r="F76">
-        <v>-0.2098225019567438</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1289154007404191</v>
+      </c>
+      <c r="G76">
+        <v>-0.1977180094766874</v>
+      </c>
+      <c r="H76">
+        <v>-0.03738365540500396</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1557714065273894</v>
+        <v>0.09649755382396212</v>
       </c>
       <c r="C77">
-        <v>-0.01865666484517478</v>
+        <v>-0.03145481973920726</v>
       </c>
       <c r="D77">
-        <v>-0.07726224419778456</v>
+        <v>0.07227679301453203</v>
       </c>
       <c r="E77">
-        <v>-0.00829003189093677</v>
+        <v>-0.01288983015323511</v>
       </c>
       <c r="F77">
-        <v>0.2082707459936669</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.009133033630738261</v>
+      </c>
+      <c r="G77">
+        <v>0.1445729987262503</v>
+      </c>
+      <c r="H77">
+        <v>-0.1985440255979106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07487829626013967</v>
+        <v>0.05155590474551655</v>
       </c>
       <c r="C78">
-        <v>-0.001665567460352668</v>
+        <v>-0.02431300070196274</v>
       </c>
       <c r="D78">
-        <v>-0.078221292660016</v>
+        <v>0.05315259709609514</v>
       </c>
       <c r="E78">
-        <v>-0.0628067549073653</v>
+        <v>0.001862556789378889</v>
       </c>
       <c r="F78">
-        <v>0.05552898426758383</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04693054637310001</v>
+      </c>
+      <c r="G78">
+        <v>0.07565078447912475</v>
+      </c>
+      <c r="H78">
+        <v>-0.02918444619662771</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1536369969001662</v>
+        <v>0.1725735340081167</v>
       </c>
       <c r="C80">
-        <v>-0.1188344839312969</v>
+        <v>-0.06962364603440649</v>
       </c>
       <c r="D80">
-        <v>0.612035149559783</v>
+        <v>-0.07063170580405706</v>
       </c>
       <c r="E80">
-        <v>-0.7404441407431275</v>
+        <v>0.9643767148225092</v>
       </c>
       <c r="F80">
-        <v>0.1111101556092394</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.05038010811852383</v>
+      </c>
+      <c r="G80">
+        <v>0.09491998557017424</v>
+      </c>
+      <c r="H80">
+        <v>0.03111833083678103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1614784970668013</v>
+        <v>0.1602791158012632</v>
       </c>
       <c r="C81">
-        <v>0.08216978319779923</v>
+        <v>-0.09705413587436479</v>
       </c>
       <c r="D81">
-        <v>-0.05456653837553139</v>
+        <v>0.03597545623807193</v>
       </c>
       <c r="E81">
-        <v>-0.04262269397900107</v>
+        <v>-0.00885434847017628</v>
       </c>
       <c r="F81">
-        <v>-0.1988913752728335</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.09721308601799414</v>
+      </c>
+      <c r="G81">
+        <v>-0.132331735825098</v>
+      </c>
+      <c r="H81">
+        <v>-0.03787480381045875</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05642666488169769</v>
+        <v>0.04333171064794032</v>
       </c>
       <c r="C83">
-        <v>-0.02015544195111206</v>
+        <v>-0.01607740346653315</v>
       </c>
       <c r="D83">
-        <v>-0.05693044980617042</v>
+        <v>0.02821841889202552</v>
       </c>
       <c r="E83">
-        <v>-0.01201254154644044</v>
+        <v>-0.01271097991595647</v>
       </c>
       <c r="F83">
-        <v>0.06267344541584804</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.00975654687013007</v>
+      </c>
+      <c r="G83">
+        <v>0.0571441736601115</v>
+      </c>
+      <c r="H83">
+        <v>-0.03564064166689096</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2205958444533588</v>
+        <v>0.2171480047894489</v>
       </c>
       <c r="C85">
-        <v>0.06369079545937077</v>
+        <v>-0.1208109346375066</v>
       </c>
       <c r="D85">
-        <v>-0.06180304772725665</v>
+        <v>0.07983427767684977</v>
       </c>
       <c r="E85">
-        <v>-0.06130927993345141</v>
+        <v>-0.01858715050751931</v>
       </c>
       <c r="F85">
-        <v>-0.2336826817488678</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1201335477187114</v>
+      </c>
+      <c r="G85">
+        <v>-0.1911974982388938</v>
+      </c>
+      <c r="H85">
+        <v>-0.02638039670126728</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02260042069631962</v>
+        <v>0.01279426837328174</v>
       </c>
       <c r="C86">
-        <v>-0.009135939716518698</v>
+        <v>-0.000698138701710265</v>
       </c>
       <c r="D86">
-        <v>-0.05812677165056502</v>
+        <v>0.02875629412252204</v>
       </c>
       <c r="E86">
-        <v>-0.02652819254997051</v>
+        <v>-0.004671092024707992</v>
       </c>
       <c r="F86">
-        <v>0.0910357733953082</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01584496504084411</v>
+      </c>
+      <c r="G86">
+        <v>0.09872397445658519</v>
+      </c>
+      <c r="H86">
+        <v>-0.05819416299591432</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.01252882660248482</v>
+        <v>0.02147018687849598</v>
       </c>
       <c r="C87">
-        <v>0.03375670758270805</v>
+        <v>-0.002635092631296147</v>
       </c>
       <c r="D87">
-        <v>0.03959356365786545</v>
+        <v>-0.01112159913555515</v>
       </c>
       <c r="E87">
-        <v>0.03304519525608422</v>
+        <v>-0.00144120555237809</v>
       </c>
       <c r="F87">
-        <v>0.08964559029472413</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.002378975312107329</v>
+      </c>
+      <c r="G87">
+        <v>0.0980999835000228</v>
+      </c>
+      <c r="H87">
+        <v>0.008032092186814605</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01312629428346943</v>
+        <v>0.03734846621249104</v>
       </c>
       <c r="C88">
-        <v>0.01586880280637243</v>
+        <v>0.006710849837258552</v>
       </c>
       <c r="D88">
-        <v>0.005128172987497679</v>
+        <v>-0.005094657812957408</v>
       </c>
       <c r="E88">
-        <v>-0.01942820498038114</v>
+        <v>0.004406922576182644</v>
       </c>
       <c r="F88">
-        <v>0.02184949998364326</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.009609772441746375</v>
+      </c>
+      <c r="G88">
+        <v>0.003419566120417218</v>
+      </c>
+      <c r="H88">
+        <v>-0.02741106336322675</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07988468424718177</v>
+        <v>0.1361389958954491</v>
       </c>
       <c r="C89">
-        <v>0.1090956075357881</v>
+        <v>-0.01580922820925159</v>
       </c>
       <c r="D89">
-        <v>0.2313145396939045</v>
+        <v>-0.3561737882723344</v>
       </c>
       <c r="E89">
-        <v>0.229417044697263</v>
+        <v>-0.07472145097778132</v>
       </c>
       <c r="F89">
-        <v>0.04546833975310707</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.1590589761577478</v>
+      </c>
+      <c r="G89">
+        <v>-0.001051625037327752</v>
+      </c>
+      <c r="H89">
+        <v>-0.1008443989885976</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07782513944216478</v>
+        <v>0.1009291302978303</v>
       </c>
       <c r="C90">
-        <v>0.111741186145106</v>
+        <v>-0.008517834484692498</v>
       </c>
       <c r="D90">
-        <v>0.257414669034813</v>
+        <v>-0.3013633083278464</v>
       </c>
       <c r="E90">
-        <v>0.1795975027600995</v>
+        <v>-0.04432295917950944</v>
       </c>
       <c r="F90">
-        <v>0.01414835862551094</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.1479046609006575</v>
+      </c>
+      <c r="G90">
+        <v>-0.03593692841132451</v>
+      </c>
+      <c r="H90">
+        <v>-0.0599409234349858</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.286367637384594</v>
+        <v>0.2515208408006052</v>
       </c>
       <c r="C91">
-        <v>0.08016046704640742</v>
+        <v>-0.1501894419567212</v>
       </c>
       <c r="D91">
-        <v>-0.0845665164749321</v>
+        <v>0.08047018836305658</v>
       </c>
       <c r="E91">
-        <v>-0.05706790065576735</v>
+        <v>-0.02593915002847851</v>
       </c>
       <c r="F91">
-        <v>-0.2991398346339519</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1266192322483563</v>
+      </c>
+      <c r="G91">
+        <v>-0.2485306635692243</v>
+      </c>
+      <c r="H91">
+        <v>-0.05579489625150918</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1197650625045889</v>
+        <v>0.1640997734837914</v>
       </c>
       <c r="C92">
-        <v>0.08938220478673753</v>
+        <v>-0.08572924095765229</v>
       </c>
       <c r="D92">
-        <v>0.2771581885696314</v>
+        <v>-0.3054651511698371</v>
       </c>
       <c r="E92">
-        <v>0.1681675982166035</v>
+        <v>-0.02961618322055794</v>
       </c>
       <c r="F92">
-        <v>0.004389480876860999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1463626662326751</v>
+      </c>
+      <c r="G92">
+        <v>-0.09661107273967159</v>
+      </c>
+      <c r="H92">
+        <v>-0.1679683622466287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.07461392200459495</v>
+        <v>0.1254018699026246</v>
       </c>
       <c r="C93">
-        <v>0.09977600080212098</v>
+        <v>-0.01980653053215302</v>
       </c>
       <c r="D93">
-        <v>0.3163172786695077</v>
+        <v>-0.3437319759609365</v>
       </c>
       <c r="E93">
-        <v>0.2405927361553631</v>
+        <v>-0.0610596894538857</v>
       </c>
       <c r="F93">
-        <v>-0.01537192762203671</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.2108529916585701</v>
+      </c>
+      <c r="G93">
+        <v>-0.05268920519229501</v>
+      </c>
+      <c r="H93">
+        <v>0.00164684577487818</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2448325254219571</v>
+        <v>0.2598136181547752</v>
       </c>
       <c r="C94">
-        <v>0.1052523331847385</v>
+        <v>-0.1329566599024671</v>
       </c>
       <c r="D94">
-        <v>-0.01086977492480983</v>
+        <v>0.02898111277458036</v>
       </c>
       <c r="E94">
-        <v>-0.02771522449161028</v>
+        <v>-0.04277658794367031</v>
       </c>
       <c r="F94">
-        <v>-0.3409275848034795</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1228081728393059</v>
+      </c>
+      <c r="G94">
+        <v>-0.2779952790590329</v>
+      </c>
+      <c r="H94">
+        <v>-0.0486795418355854</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1387185286911075</v>
+        <v>0.09751165137908621</v>
       </c>
       <c r="C95">
-        <v>0.006627257672688294</v>
+        <v>-0.06052949532903103</v>
       </c>
       <c r="D95">
-        <v>-0.1306795946751778</v>
+        <v>0.05557804585318987</v>
       </c>
       <c r="E95">
-        <v>-0.01645994509910808</v>
+        <v>-0.08036713905157714</v>
       </c>
       <c r="F95">
-        <v>0.1072612759834641</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.01721366771819829</v>
+      </c>
+      <c r="G95">
+        <v>0.09494207195311463</v>
+      </c>
+      <c r="H95">
+        <v>-0.1208911225911768</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1933466698996328</v>
+        <v>0.1799040695245359</v>
       </c>
       <c r="C98">
-        <v>0.06674745593240448</v>
+        <v>-0.09580251305468669</v>
       </c>
       <c r="D98">
-        <v>0.02959105238703266</v>
+        <v>-0.03454781898674695</v>
       </c>
       <c r="E98">
-        <v>0.1093906718704273</v>
+        <v>-0.07066852167363295</v>
       </c>
       <c r="F98">
-        <v>0.1104700080066496</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.008356749066013799</v>
+      </c>
+      <c r="G98">
+        <v>0.1997631941683492</v>
+      </c>
+      <c r="H98">
+        <v>0.3873966693610182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001260299107781969</v>
+        <v>0.01623333746953559</v>
       </c>
       <c r="C101">
-        <v>0.02153245274683242</v>
+        <v>-0.002994267649451858</v>
       </c>
       <c r="D101">
-        <v>-0.04997936615417146</v>
+        <v>0.0140854929003657</v>
       </c>
       <c r="E101">
-        <v>-0.04901529848166047</v>
+        <v>0.002165048853076993</v>
       </c>
       <c r="F101">
-        <v>0.05036691081148652</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03605506017125807</v>
+      </c>
+      <c r="G101">
+        <v>0.07820928155668259</v>
+      </c>
+      <c r="H101">
+        <v>-0.1209319648717112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09419424850358109</v>
+        <v>0.1109779268958408</v>
       </c>
       <c r="C102">
-        <v>0.02715719845439608</v>
+        <v>-0.05449488970008707</v>
       </c>
       <c r="D102">
-        <v>-0.04220011519687546</v>
+        <v>0.0339474772707596</v>
       </c>
       <c r="E102">
-        <v>-0.05033074687225367</v>
+        <v>-0.003106256699364167</v>
       </c>
       <c r="F102">
-        <v>-0.1066766505509157</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06959627568044535</v>
+      </c>
+      <c r="G102">
+        <v>-0.1128884101647389</v>
+      </c>
+      <c r="H102">
+        <v>-0.007553258248650422</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02460647727068498</v>
+        <v>0.02456436919104787</v>
       </c>
       <c r="C103">
-        <v>0.006956911255603794</v>
+        <v>-0.01275663921571025</v>
       </c>
       <c r="D103">
-        <v>-0.002673374257756148</v>
+        <v>0.007762589425614987</v>
       </c>
       <c r="E103">
-        <v>-0.002073676652055516</v>
+        <v>0.00629509664055538</v>
       </c>
       <c r="F103">
-        <v>-0.03560059162696907</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01236374854722568</v>
+      </c>
+      <c r="G103">
+        <v>-0.01362559327155079</v>
+      </c>
+      <c r="H103">
+        <v>-0.01530579164075023</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.3919638338478731</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.8988216430272732</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.0105662628197302</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.006112323447182232</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1651135936163755</v>
+      </c>
+      <c r="G104">
+        <v>-0.04707807048597558</v>
+      </c>
+      <c r="H104">
+        <v>-0.001434084262618806</v>
       </c>
     </row>
   </sheetData>
